--- a/Doc/ExcelConfig/Datas/活动/TActivityDailyOnlinePrize.xlsx
+++ b/Doc/ExcelConfig/Datas/活动/TActivityDailyOnlinePrize.xlsx
@@ -79,10 +79,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -107,9 +107,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,75 +183,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -200,8 +191,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,14 +216,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,97 +258,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,73 +426,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,15 +455,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -475,6 +466,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,32 +518,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -552,16 +541,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -570,7 +570,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,124 +579,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1050,10 +1050,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" s="2" customFormat="1" ht="28" spans="1:5">
+    <row r="3" s="2" customFormat="1" spans="1:5">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1118,7 +1118,9 @@
       <c r="B5" s="10">
         <v>300</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5">
+        <v>5</v>
+      </c>
       <c r="D5" s="11">
         <v>10001</v>
       </c>
@@ -1135,8 +1137,11 @@
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="11">
-        <v>3000</v>
+      <c r="B7" s="10">
+        <v>900</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
       </c>
       <c r="D7" s="11">
         <v>10001</v>
@@ -1146,19 +1151,20 @@
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="11">
-        <v>4000</v>
-      </c>
+      <c r="B8" s="11"/>
       <c r="D8" s="11">
-        <v>10001</v>
+        <v>10002</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="11">
-        <v>5000</v>
+      <c r="B9" s="10">
+        <v>1800</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
       </c>
       <c r="D9" s="11">
         <v>10001</v>
@@ -1168,22 +1174,21 @@
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="11">
-        <v>6000</v>
-      </c>
-      <c r="C10" s="11"/>
+      <c r="B10" s="11"/>
       <c r="D10" s="11">
-        <v>10001</v>
+        <v>10002</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="11">
-        <v>7000</v>
-      </c>
-      <c r="C11" s="11"/>
+      <c r="B11" s="10">
+        <v>2700</v>
+      </c>
+      <c r="C11">
+        <v>45</v>
+      </c>
       <c r="D11" s="11">
         <v>10001</v>
       </c>
@@ -1192,20 +1197,20 @@
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="11">
-        <v>8000</v>
-      </c>
-      <c r="C12" s="11"/>
+      <c r="B12" s="11"/>
       <c r="D12" s="11">
-        <v>10001</v>
+        <v>10002</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="11">
-        <v>9000</v>
+      <c r="B13" s="10">
+        <v>3600</v>
+      </c>
+      <c r="C13">
+        <v>60</v>
       </c>
       <c r="D13" s="11">
         <v>10001</v>
@@ -1215,22 +1220,21 @@
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="11">
-        <v>10000</v>
-      </c>
-      <c r="C14" s="11"/>
+      <c r="B14" s="11"/>
       <c r="D14" s="11">
-        <v>10001</v>
+        <v>10002</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="11">
-        <v>11000</v>
-      </c>
-      <c r="C15" s="11"/>
+      <c r="B15" s="10">
+        <v>5400</v>
+      </c>
+      <c r="C15">
+        <v>90</v>
+      </c>
       <c r="D15" s="11">
         <v>10001</v>
       </c>
@@ -1239,22 +1243,21 @@
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="11">
-        <v>12000</v>
-      </c>
-      <c r="C16" s="11"/>
+      <c r="B16" s="11"/>
       <c r="D16" s="11">
-        <v>10001</v>
+        <v>10002</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="11">
-        <v>13000</v>
-      </c>
-      <c r="C17" s="11"/>
+      <c r="B17" s="10">
+        <v>7200</v>
+      </c>
+      <c r="C17">
+        <v>120</v>
+      </c>
       <c r="D17" s="11">
         <v>10001</v>
       </c>
@@ -1263,21 +1266,16 @@
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="11">
-        <v>14000</v>
-      </c>
-      <c r="C18" s="11"/>
+      <c r="B18" s="11"/>
       <c r="D18" s="11">
-        <v>10001</v>
+        <v>10002</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="11">
-        <v>15000</v>
-      </c>
+      <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
         <v>10001</v>
@@ -1287,190 +1285,12 @@
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="11">
-        <v>16000</v>
-      </c>
+      <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11">
-        <v>10001</v>
+        <v>10002</v>
       </c>
       <c r="E20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="11">
-        <v>17000</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11">
-        <v>10001</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="11">
-        <v>18000</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11">
-        <v>10001</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="11">
-        <v>19000</v>
-      </c>
-      <c r="D23" s="11">
-        <v>10001</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="11">
-        <v>20000</v>
-      </c>
-      <c r="D24" s="11">
-        <v>10001</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="11">
-        <v>21000</v>
-      </c>
-      <c r="D25" s="11">
-        <v>10001</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="11">
-        <v>22000</v>
-      </c>
-      <c r="D26" s="11">
-        <v>10001</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="11">
-        <v>23000</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11">
-        <v>10001</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="11">
-        <v>24000</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11">
-        <v>10001</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="11">
-        <v>25000</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11">
-        <v>10001</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="11">
-        <v>26000</v>
-      </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11">
-        <v>10001</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="11">
-        <v>27000</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11">
-        <v>10001</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="11">
-        <v>28000</v>
-      </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11">
-        <v>10001</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="11">
-        <v>29000</v>
-      </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11">
-        <v>10001</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="11">
-        <v>30000</v>
-      </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11">
-        <v>10001</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="11">
-        <v>31000</v>
-      </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11">
-        <v>10001</v>
-      </c>
-      <c r="E35">
         <v>1</v>
       </c>
     </row>
